--- a/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6193</v>
+        <v>5826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566718871139207</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08299057627666644</v>
+        <v>0.0780776467028747</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5622</v>
+        <v>5495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0513106910695076</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1588714728363747</v>
+        <v>0.1552995483053142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5757</v>
+        <v>4907</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02502432115662358</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.146736778100112</v>
+        <v>0.1250737150067224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -849,19 +849,19 @@
         <v>2797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7781</v>
+        <v>7415</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0374901459823991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01184731737908479</v>
+        <v>0.01200193477559629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1042793374605714</v>
+        <v>0.09937928440949365</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>33570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29764</v>
+        <v>29891</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -887,7 +887,7 @@
         <v>0.9486893089304924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8411285271636253</v>
+        <v>0.8447004516946859</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>37080</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32260</v>
+        <v>32590</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -908,7 +908,7 @@
         <v>0.9451770337561605</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8223035963308072</v>
+        <v>0.8307081528987672</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -920,19 +920,19 @@
         <v>70651</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64859</v>
+        <v>65652</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73629</v>
+        <v>73472</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9468426653062089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8692203035780025</v>
+        <v>0.8798585835685833</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9867573142757047</v>
+        <v>0.9846502931009585</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8997</v>
+        <v>10415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04106427234809665</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1349825011913141</v>
+        <v>0.1562487460856945</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1045,19 +1045,19 @@
         <v>3218</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8819</v>
+        <v>8935</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03288327848118839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009258505169953747</v>
+        <v>0.009125712047322073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.090101962046976</v>
+        <v>0.09128677538987054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1066,19 +1066,19 @@
         <v>5956</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2112</v>
+        <v>2040</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13501</v>
+        <v>13448</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03619757249795858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01283622986295288</v>
+        <v>0.01239872523870064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08206067240668403</v>
+        <v>0.08173653925438189</v>
       </c>
     </row>
     <row r="9">
@@ -1108,19 +1108,19 @@
         <v>3692</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>896</v>
+        <v>992</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8269</v>
+        <v>9229</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03772446866257431</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009150841761464943</v>
+        <v>0.01013841960935184</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08448476043297515</v>
+        <v>0.09429496715589192</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1129,19 +1129,19 @@
         <v>3692</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8327</v>
+        <v>8946</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02244148681363967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005557845225747484</v>
+        <v>0.005643423940824139</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.050609124921069</v>
+        <v>0.05437621902321661</v>
       </c>
     </row>
     <row r="10">
@@ -1158,7 +1158,7 @@
         <v>63917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57657</v>
+        <v>56239</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1167,7 +1167,7 @@
         <v>0.9589357276519034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8650174988086859</v>
+        <v>0.8437512539143048</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1179,19 +1179,19 @@
         <v>90964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84619</v>
+        <v>84645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94998</v>
+        <v>95094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9293922528562373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8645666743859333</v>
+        <v>0.864829700135745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9706097368243405</v>
+        <v>0.9715823670538195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1200,19 +1200,19 @@
         <v>154881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146723</v>
+        <v>146913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159702</v>
+        <v>159968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9413609406884017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8917780513108311</v>
+        <v>0.8929283991649887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9706624546364148</v>
+        <v>0.97228037556085</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>4576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10407</v>
+        <v>11513</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05478832645033306</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01387958184081006</v>
+        <v>0.01373091619590962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1246062950215043</v>
+        <v>0.137844334073633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1338,19 +1338,19 @@
         <v>4576</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11183</v>
+        <v>11188</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03403210083461822</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008599815334316949</v>
+        <v>0.008623614815099524</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08317126896350581</v>
+        <v>0.08320706048770914</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7383</v>
+        <v>6821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0256481761820033</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08840052717717806</v>
+        <v>0.08166414061978701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1409,19 +1409,19 @@
         <v>3092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9302</v>
+        <v>8370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0229921198120847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007018592703919527</v>
+        <v>0.00697675629985448</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06918088703610645</v>
+        <v>0.06225036262776146</v>
       </c>
     </row>
     <row r="14">
@@ -1438,7 +1438,7 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1447,7 +1447,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1459,19 +1459,19 @@
         <v>76803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70301</v>
+        <v>70109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81216</v>
+        <v>81187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9195634973676636</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8417126905661209</v>
+        <v>0.8394146327414622</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9724062904339063</v>
+        <v>0.9720593372124775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1480,19 +1480,19 @@
         <v>126793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120391</v>
+        <v>119649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131033</v>
+        <v>131108</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9429757793532971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8953603865876845</v>
+        <v>0.8898421190726701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.974504364826082</v>
+        <v>0.9750665842542445</v>
       </c>
     </row>
     <row r="15">
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4402</v>
+        <v>5490</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01456889842396426</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05923826467442908</v>
+        <v>0.07387163340997881</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6538</v>
+        <v>6471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01478202900115146</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05051403549053782</v>
+        <v>0.04999335481983178</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>2610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6993</v>
+        <v>6705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04734358196098082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01497773027699123</v>
+        <v>0.01480514721829934</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1268709637548024</v>
+        <v>0.1216427390827824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1676,19 +1676,19 @@
         <v>4409</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9862</v>
+        <v>10174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05932786835296128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01502549201252821</v>
+        <v>0.01492457152722803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1327094426133136</v>
+        <v>0.1369016226846357</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1697,19 +1697,19 @@
         <v>7019</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2989</v>
+        <v>3126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13450</v>
+        <v>13175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05422417502317729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02309322508122365</v>
+        <v>0.02415059763905125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1039085668633433</v>
+        <v>0.1017881150590365</v>
       </c>
     </row>
     <row r="18">
@@ -1726,19 +1726,19 @@
         <v>51682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47373</v>
+        <v>46578</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54286</v>
+        <v>54269</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9375870550081802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8594195262288473</v>
+        <v>0.8449959006256716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9848270069543377</v>
+        <v>0.9845278749164791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -1747,19 +1747,19 @@
         <v>68822</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62699</v>
+        <v>62496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72148</v>
+        <v>72212</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9261032332230744</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8437203507359416</v>
+        <v>0.840977423994216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9708667655640433</v>
+        <v>0.9717333833254572</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1768,19 +1768,19 @@
         <v>120504</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113738</v>
+        <v>113180</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>125391</v>
+        <v>124932</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9309937959756712</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8787189840268369</v>
+        <v>0.8744117061945533</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.968748036448325</v>
+        <v>0.965202826201964</v>
       </c>
     </row>
     <row r="19">
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1893,19 +1893,19 @@
         <v>4111</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1107</v>
+        <v>1143</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9144</v>
+        <v>9503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09966381740337366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0268452833750528</v>
+        <v>0.02770402375377478</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2216892562588475</v>
+        <v>0.2303863319279465</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1914,19 +1914,19 @@
         <v>4979</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1789</v>
+        <v>1188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10875</v>
+        <v>10043</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07052810241847617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0253382719520595</v>
+        <v>0.01683224655291349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.154053812884595</v>
+        <v>0.1422666099758192</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8679</v>
+        <v>8618</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05632988341812147</v>
+        <v>0.05586510097328279</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2957215899739007</v>
+        <v>0.2936674671717372</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1964,19 +1964,19 @@
         <v>4157</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>954</v>
+        <v>1086</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8957</v>
+        <v>9210</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1007865633767067</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02311891681649023</v>
+        <v>0.02633270950983854</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2171676770080958</v>
+        <v>0.223294062554412</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1985,19 +1985,19 @@
         <v>8438</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4357</v>
+        <v>3735</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15035</v>
+        <v>14652</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1195333382953071</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06171721507839548</v>
+        <v>0.05290197109286567</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.212982892038047</v>
+        <v>0.2075513407826857</v>
       </c>
     </row>
     <row r="22">
@@ -2014,19 +2014,19 @@
         <v>24198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19611</v>
+        <v>19787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27526</v>
+        <v>27565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.82453968145467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6682536359130193</v>
+        <v>0.6742358392301478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9379472399353461</v>
+        <v>0.9392719391228801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2035,19 +2035,19 @@
         <v>32978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26643</v>
+        <v>26463</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37773</v>
+        <v>37241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7995496192199196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6459631632088655</v>
+        <v>0.6415925262584727</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9157984498147527</v>
+        <v>0.9028974233436085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -2056,19 +2056,19 @@
         <v>57176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49268</v>
+        <v>49719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62765</v>
+        <v>62906</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8099385592862168</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6979117106544322</v>
+        <v>0.7043090246925611</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8891134136833316</v>
+        <v>0.8911067402794455</v>
       </c>
     </row>
     <row r="23">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4343</v>
+        <v>4685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01799008403008113</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09201990002753506</v>
+        <v>0.09926967699106949</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2181,19 +2181,19 @@
         <v>3693</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9799</v>
+        <v>9657</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05252769543835433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01647998916896655</v>
+        <v>0.01633815615872606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1393750370481258</v>
+        <v>0.1373445898404375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2202,19 +2202,19 @@
         <v>4542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1387</v>
+        <v>1166</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11064</v>
+        <v>10760</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03865554589764486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01180475646863868</v>
+        <v>0.009924534885616723</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09415371109141528</v>
+        <v>0.09157370492256348</v>
       </c>
     </row>
     <row r="25">
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5814</v>
+        <v>6500</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04009136182717406</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1231987134157519</v>
+        <v>0.1377331953889382</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5692</v>
+        <v>5833</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01665941960752972</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08095054424258538</v>
+        <v>0.08295799481169541</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2273,19 +2273,19 @@
         <v>3063</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7907</v>
+        <v>7954</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02607093920156588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007998744880776653</v>
+        <v>0.007969221318059905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06729003607343537</v>
+        <v>0.06769023937254062</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>44455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39925</v>
+        <v>39824</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46354</v>
+        <v>46352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9419185541427448</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.845945720235852</v>
+        <v>0.8438066841517338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9821649346987045</v>
+        <v>0.9821234502463981</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -2323,19 +2323,19 @@
         <v>65445</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59191</v>
+        <v>59469</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69100</v>
+        <v>69120</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.930812884954116</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8418740473191764</v>
+        <v>0.8458250788854225</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9828036071939424</v>
+        <v>0.9830932955124406</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -2344,19 +2344,19 @@
         <v>109900</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>103332</v>
+        <v>103547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114413</v>
+        <v>114185</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9352735149007892</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8793722516527893</v>
+        <v>0.8812053490048788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9736764575956882</v>
+        <v>0.9717406859810847</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>2610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6825</v>
+        <v>7011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02463780012515411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007401200264183313</v>
+        <v>0.007685120185063639</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06443467709301551</v>
+        <v>0.06619085292161286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2469,19 +2469,19 @@
         <v>4850</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1783</v>
+        <v>1931</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10466</v>
+        <v>10988</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0414067798253399</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01522530230806159</v>
+        <v>0.01648703788207301</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0893642465733902</v>
+        <v>0.0938211328526708</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2490,19 +2490,19 @@
         <v>7459</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3101</v>
+        <v>3419</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14394</v>
+        <v>13829</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03344304826240141</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01390396818018416</v>
+        <v>0.01532838135258218</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06453200928223699</v>
+        <v>0.06199963485461494</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>3525</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8152</v>
+        <v>7994</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03327360079646081</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008621044587660281</v>
+        <v>0.008378552424106582</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07695565574232091</v>
+        <v>0.07546370272170966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7704</v>
+        <v>7317</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01876396010404563</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06578114012220007</v>
+        <v>0.06247528271103764</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2561,19 +2561,19 @@
         <v>5722</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2031</v>
+        <v>2498</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11765</v>
+        <v>12662</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02565471229141952</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009105758099440007</v>
+        <v>0.01120009286608106</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05274517247694521</v>
+        <v>0.05676784286805178</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>99794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>94442</v>
+        <v>94335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104016</v>
+        <v>103377</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.942088599078385</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8915644477696927</v>
+        <v>0.8905624004663529</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9819479971430255</v>
+        <v>0.9759221953980847</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>110</v>
@@ -2611,19 +2611,19 @@
         <v>110074</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>103583</v>
+        <v>103878</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>114129</v>
+        <v>114122</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9398292600706145</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8844138254744495</v>
+        <v>0.8869251691083243</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9744511960393456</v>
+        <v>0.9743935229534769</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>211</v>
@@ -2632,19 +2632,19 @@
         <v>209867</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>201811</v>
+        <v>202266</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>215313</v>
+        <v>215280</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9409022394461791</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9047844573808712</v>
+        <v>0.9068245756933334</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9653185154328784</v>
+        <v>0.9651672360459745</v>
       </c>
     </row>
     <row r="31">
@@ -2736,19 +2736,19 @@
         <v>2644</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6964</v>
+        <v>7276</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02363112522719932</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006584059888649373</v>
+        <v>0.006653692919749112</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06223810364317488</v>
+        <v>0.06502522691852837</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2757,19 +2757,19 @@
         <v>6088</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2278</v>
+        <v>2360</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13095</v>
+        <v>13625</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03973504353908518</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01486736695793343</v>
+        <v>0.0153997658377406</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08546096022499935</v>
+        <v>0.08892027907419461</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2778,19 +2778,19 @@
         <v>8733</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3873</v>
+        <v>3844</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15809</v>
+        <v>16991</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03293840309472285</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01461003570501715</v>
+        <v>0.01449762589972486</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05963158269675663</v>
+        <v>0.06408948556059739</v>
       </c>
     </row>
     <row r="33">
@@ -2807,19 +2807,19 @@
         <v>5651</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1984</v>
+        <v>2560</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10927</v>
+        <v>11612</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05050277004651312</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01773363869048137</v>
+        <v>0.02287869616564069</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09765542959051252</v>
+        <v>0.1037778081224555</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -2828,19 +2828,19 @@
         <v>14957</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8694</v>
+        <v>8279</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>23905</v>
+        <v>23600</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.09761401954521674</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05673925640725058</v>
+        <v>0.05403087642056657</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1560094729699891</v>
+        <v>0.1540189771833138</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>19</v>
@@ -2849,19 +2849,19 @@
         <v>20608</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12896</v>
+        <v>12990</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>31425</v>
+        <v>31438</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07773077016913142</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04864075313479164</v>
+        <v>0.04899829049681707</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.118531249978494</v>
+        <v>0.1185826787226101</v>
       </c>
     </row>
     <row r="34">
@@ -2878,19 +2878,19 @@
         <v>103598</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>97229</v>
+        <v>97000</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>108137</v>
+        <v>107991</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9258661047262876</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8689435754004405</v>
+        <v>0.8669006811095288</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.96642874197447</v>
+        <v>0.9651254653047913</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>126</v>
@@ -2899,19 +2899,19 @@
         <v>132180</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>122243</v>
+        <v>121754</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>139681</v>
+        <v>140454</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8626509369156981</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7978029685475955</v>
+        <v>0.7946107358337061</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9116039782149195</v>
+        <v>0.9166513265475645</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>233</v>
@@ -2920,19 +2920,19 @@
         <v>235778</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>223079</v>
+        <v>223164</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>244848</v>
+        <v>245308</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8893308267361457</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.841431543543414</v>
+        <v>0.8417527978109139</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9235443303942743</v>
+        <v>0.9252794034386196</v>
       </c>
     </row>
     <row r="35">
@@ -3024,19 +3024,19 @@
         <v>10539</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5209</v>
+        <v>5365</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18563</v>
+        <v>18854</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02097433554501325</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01036780956313693</v>
+        <v>0.0106769937855161</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03694377233716712</v>
+        <v>0.03752370401794638</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -3045,19 +3045,19 @@
         <v>28788</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19061</v>
+        <v>19584</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>40676</v>
+        <v>40052</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0425328731797484</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02816151057777279</v>
+        <v>0.02893442832714287</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06009684955103264</v>
+        <v>0.05917425656642269</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -3066,19 +3066,19 @@
         <v>39327</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27634</v>
+        <v>28488</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52417</v>
+        <v>52952</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03334745914221331</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02343205833371135</v>
+        <v>0.02415647125718613</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04444751716061437</v>
+        <v>0.04490056394154767</v>
       </c>
     </row>
     <row r="37">
@@ -3095,19 +3095,19 @@
         <v>20724</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13193</v>
+        <v>14372</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29775</v>
+        <v>31579</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04124368864540114</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02625740491629797</v>
+        <v>0.02860351954795546</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05925715579993482</v>
+        <v>0.06284820924441316</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -3116,19 +3116,19 @@
         <v>33708</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22231</v>
+        <v>23392</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>46250</v>
+        <v>46644</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04980181034342319</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03284483715013303</v>
+        <v>0.03456080512261933</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06833179557863503</v>
+        <v>0.06891471526137513</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>54</v>
@@ -3137,19 +3137,19 @@
         <v>54432</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>43103</v>
+        <v>41076</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>72349</v>
+        <v>70642</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04615546417134846</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03654966119998008</v>
+        <v>0.03483044918709861</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06134904417141986</v>
+        <v>0.05990104158532891</v>
       </c>
     </row>
     <row r="38">
@@ -3166,19 +3166,19 @@
         <v>471204</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>459917</v>
+        <v>458962</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>480530</v>
+        <v>479663</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9377819758095856</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.915318971304072</v>
+        <v>0.9134183903726087</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9563438082618031</v>
+        <v>0.9546171213569796</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>603</v>
@@ -3187,19 +3187,19 @@
         <v>614346</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>598490</v>
+        <v>598847</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>629860</v>
+        <v>628560</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9076653164768285</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8842392416862065</v>
+        <v>0.8847663762577932</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9305866179910566</v>
+        <v>0.9286653204450136</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1092</v>
@@ -3208,19 +3208,19 @@
         <v>1085550</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1064641</v>
+        <v>1066793</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1102072</v>
+        <v>1104239</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9204970766864382</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9027678560406265</v>
+        <v>0.9045923187532333</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9345074908199521</v>
+        <v>0.936344666133714</v>
       </c>
     </row>
     <row r="39">
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6945</v>
+        <v>6669</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04306315102099565</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1568285307106343</v>
+        <v>0.1506151491373358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3577,19 +3577,19 @@
         <v>3381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9030</v>
+        <v>8857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06915016695332252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02234683872868588</v>
+        <v>0.02243989703898129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1846894249027487</v>
+        <v>0.1811508891388696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3598,19 +3598,19 @@
         <v>5288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1975</v>
+        <v>1156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11922</v>
+        <v>11188</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05675247936532283</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02120042981180629</v>
+        <v>0.01240519790841826</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1279523796472185</v>
+        <v>0.1200798218258324</v>
       </c>
     </row>
     <row r="5">
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4524</v>
+        <v>5955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02358949921732404</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.102162281188588</v>
+        <v>0.1344740740999099</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3648,19 +3648,19 @@
         <v>8344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4089</v>
+        <v>3841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15529</v>
+        <v>14506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1706474240510133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08363045482619837</v>
+        <v>0.07856406572721472</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3176141489097224</v>
+        <v>0.2966883739660271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -3669,19 +3669,19 @@
         <v>9388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4319</v>
+        <v>4237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16242</v>
+        <v>16715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1007590851870672</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04635424253801843</v>
+        <v>0.0454728765652111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1743165480974771</v>
+        <v>0.179397123857834</v>
       </c>
     </row>
     <row r="6">
@@ -3698,19 +3698,19 @@
         <v>41330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36422</v>
+        <v>35861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44281</v>
+        <v>43408</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9333473497616803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8225228517485651</v>
+        <v>0.8098539340594653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1</v>
+        <v>0.9802956556306774</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -3719,19 +3719,19 @@
         <v>37169</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29863</v>
+        <v>30302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42397</v>
+        <v>42360</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7602024089956642</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6107632416877362</v>
+        <v>0.6197407962045809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8671254069562903</v>
+        <v>0.8663588200252296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -3740,19 +3740,19 @@
         <v>78499</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>70679</v>
+        <v>70270</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84316</v>
+        <v>84850</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.84248843544761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.758559899786706</v>
+        <v>0.7541671525791878</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9049251740080804</v>
+        <v>0.9106483581966004</v>
       </c>
     </row>
     <row r="7">
@@ -3844,19 +3844,19 @@
         <v>5446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1100</v>
+        <v>1988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13022</v>
+        <v>14083</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06876088001166927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01388390432587974</v>
+        <v>0.02510523437307351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1644133286122539</v>
+        <v>0.1778147793037027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3865,19 +3865,19 @@
         <v>6699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2240</v>
+        <v>2294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13771</v>
+        <v>15012</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06561406029006803</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02193693100463988</v>
+        <v>0.02247217422158824</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1348848169634642</v>
+        <v>0.1470396328281905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -3886,19 +3886,19 @@
         <v>12145</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5787</v>
+        <v>6355</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22426</v>
+        <v>22817</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06698881177386243</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03192170685302166</v>
+        <v>0.03505404646397242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.123700250733121</v>
+        <v>0.1258527502765192</v>
       </c>
     </row>
     <row r="9">
@@ -3915,19 +3915,19 @@
         <v>5424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1027</v>
+        <v>1048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15545</v>
+        <v>16272</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06847695679027258</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01297038239043182</v>
+        <v>0.01322891914276497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1962720997209599</v>
+        <v>0.205450114920324</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -3936,19 +3936,19 @@
         <v>12889</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7419</v>
+        <v>7333</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21052</v>
+        <v>22102</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1262520505198681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0726690497505838</v>
+        <v>0.07182210183508939</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2062062159226423</v>
+        <v>0.2164895476713778</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3957,19 +3957,19 @@
         <v>18313</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10293</v>
+        <v>10835</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29063</v>
+        <v>29318</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1010118388592183</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05677501668263687</v>
+        <v>0.05976161597549153</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1603052570201607</v>
+        <v>0.1617136271036452</v>
       </c>
     </row>
     <row r="10">
@@ -3986,19 +3986,19 @@
         <v>68333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59467</v>
+        <v>58699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74803</v>
+        <v>75007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8627621631980581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7508208509170378</v>
+        <v>0.7411216443426831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9444443916529149</v>
+        <v>0.9470254583441855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -4007,19 +4007,19 @@
         <v>82505</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72671</v>
+        <v>71935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89270</v>
+        <v>90048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8081338891900639</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7118123922568749</v>
+        <v>0.7046068946227128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8744017107155275</v>
+        <v>0.8820159005041276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -4028,19 +4028,19 @@
         <v>150838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136704</v>
+        <v>137413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160536</v>
+        <v>160574</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8319993493669192</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7540386493710164</v>
+        <v>0.7579468996795365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8854916734123197</v>
+        <v>0.8857014880506459</v>
       </c>
     </row>
     <row r="11">
@@ -4132,19 +4132,19 @@
         <v>5057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1984</v>
+        <v>1953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10739</v>
+        <v>10256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09072803961972098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03559385372852091</v>
+        <v>0.03503463451230279</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1926577702805328</v>
+        <v>0.1839844358264384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4153,19 +4153,19 @@
         <v>8725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4302</v>
+        <v>4334</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16017</v>
+        <v>16445</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1091105891008535</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05379298328535145</v>
+        <v>0.05419785600198671</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2002962504690533</v>
+        <v>0.2056471148064655</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -4174,19 +4174,19 @@
         <v>13783</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8308</v>
+        <v>7626</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22164</v>
+        <v>22443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1015600590893176</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0612209075158686</v>
+        <v>0.05619358987404105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.163318471418277</v>
+        <v>0.1653713524908809</v>
       </c>
     </row>
     <row r="13">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5142</v>
+        <v>5138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01881004458334149</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09225483058644603</v>
+        <v>0.09218064829994116</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4224,19 +4224,19 @@
         <v>8447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3275</v>
+        <v>4156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14785</v>
+        <v>15860</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1056245993769666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04095865928953315</v>
+        <v>0.05196865671775189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1848838842450843</v>
+        <v>0.1983278464463633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -4245,19 +4245,19 @@
         <v>9495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4262</v>
+        <v>4306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16321</v>
+        <v>16320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06996600359403762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03140502686055655</v>
+        <v>0.03172637039155039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1202615287782112</v>
+        <v>0.1202551109887536</v>
       </c>
     </row>
     <row r="14">
@@ -4274,19 +4274,19 @@
         <v>49636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43485</v>
+        <v>43743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53650</v>
+        <v>53671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8904619157969376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.78011356352752</v>
+        <v>0.7847368064905953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9624658253978444</v>
+        <v>0.9628556455233128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -4295,19 +4295,19 @@
         <v>62796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54543</v>
+        <v>54160</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69279</v>
+        <v>69970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7852648115221799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6820577707851514</v>
+        <v>0.6772723079295603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8663289211929935</v>
+        <v>0.8749740567993403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -4316,19 +4316,19 @@
         <v>112432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>102764</v>
+        <v>102364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120540</v>
+        <v>120524</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8284739373166448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7572352269720902</v>
+        <v>0.7542818577786379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8882191662296308</v>
+        <v>0.8881017809154386</v>
       </c>
     </row>
     <row r="15">
@@ -4420,19 +4420,19 @@
         <v>3112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8429</v>
+        <v>8205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04860835982041224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01502976830718195</v>
+        <v>0.01486887484663397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1316411202609888</v>
+        <v>0.1281527286117518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4441,19 +4441,19 @@
         <v>3211</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8609</v>
+        <v>8603</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03752342511057849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01200604432816784</v>
+        <v>0.01186966141498517</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1006030869379591</v>
+        <v>0.1005298992514899</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4462,19 +4462,19 @@
         <v>6323</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2956</v>
+        <v>2164</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12811</v>
+        <v>12768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04226763106028228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01975934008489082</v>
+        <v>0.014465824863504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08563181875976851</v>
+        <v>0.0853436787792852</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>7728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3291</v>
+        <v>3426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14498</v>
+        <v>14837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1206969056949133</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05140138669703935</v>
+        <v>0.05350612986981167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2264359359788692</v>
+        <v>0.2317191917752784</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -4512,19 +4512,19 @@
         <v>9862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5215</v>
+        <v>5253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16954</v>
+        <v>16669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1152488062640415</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06094326605195448</v>
+        <v>0.06138569769628632</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1981220086452082</v>
+        <v>0.1947854077585233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -4533,19 +4533,19 @@
         <v>17590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11023</v>
+        <v>9827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27533</v>
+        <v>26341</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1175805210112281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07368366908650532</v>
+        <v>0.06568581986882169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1840419880214038</v>
+        <v>0.1760749497271144</v>
       </c>
     </row>
     <row r="18">
@@ -4562,19 +4562,19 @@
         <v>53188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45680</v>
+        <v>45907</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58604</v>
+        <v>58609</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8306947344846745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7134372763638314</v>
+        <v>0.7169800089079374</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9152810889092985</v>
+        <v>0.9153607283747139</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -4583,19 +4583,19 @@
         <v>72501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64013</v>
+        <v>64547</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78061</v>
+        <v>78008</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.84722776862538</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7480470456191258</v>
+        <v>0.7542799049063718</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9122022042756537</v>
+        <v>0.9115872344713716</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>118</v>
@@ -4604,19 +4604,19 @@
         <v>125688</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>114721</v>
+        <v>115931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132984</v>
+        <v>134585</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8401518479284896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7668391181154024</v>
+        <v>0.7749275525936073</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8889213858406373</v>
+        <v>0.8996175721318438</v>
       </c>
     </row>
     <row r="19">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5634</v>
+        <v>4832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03658695443468548</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1782146403147828</v>
+        <v>0.1528587838780087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4729,19 +4729,19 @@
         <v>6072</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2103</v>
+        <v>2065</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11830</v>
+        <v>11872</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1217896788820738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04218267909339608</v>
+        <v>0.04142636869444442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2372945954648974</v>
+        <v>0.2381312247319069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4750,19 +4750,19 @@
         <v>7228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3020</v>
+        <v>3063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13661</v>
+        <v>14172</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08872787767747828</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0370762424726532</v>
+        <v>0.03760401290127285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1676862683231359</v>
+        <v>0.1739604894296807</v>
       </c>
     </row>
     <row r="21">
@@ -4779,19 +4779,19 @@
         <v>3292</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>984</v>
+        <v>1016</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8432</v>
+        <v>7939</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1041290401066137</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03112382954760136</v>
+        <v>0.03213694681139193</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2667197639452201</v>
+        <v>0.251133062839502</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6374</v>
+        <v>6480</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04210680795323177</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.127860281785781</v>
+        <v>0.1299862582780313</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -4821,19 +4821,19 @@
         <v>5391</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1275</v>
+        <v>2091</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10778</v>
+        <v>11397</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06617372274991279</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01565352014498106</v>
+        <v>0.02567103984145873</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1322980607755656</v>
+        <v>0.1399003104904999</v>
       </c>
     </row>
     <row r="22">
@@ -4850,19 +4850,19 @@
         <v>27164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22400</v>
+        <v>22368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30472</v>
+        <v>30502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8592840054587009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.708594006370989</v>
+        <v>0.7075833447953525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9639494811758343</v>
+        <v>0.964901803363975</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -4871,19 +4871,19 @@
         <v>41684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35743</v>
+        <v>35650</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46272</v>
+        <v>45883</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8361035131646944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7169489140184861</v>
+        <v>0.7150663293356899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9281276913901829</v>
+        <v>0.9203297074966098</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -4892,19 +4892,19 @@
         <v>68848</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60507</v>
+        <v>60957</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74339</v>
+        <v>74315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8450983995726089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7427121179878297</v>
+        <v>0.7482427516048042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9125032004791788</v>
+        <v>0.9122043620679322</v>
       </c>
     </row>
     <row r="23">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7562</v>
+        <v>6459</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04142484387810814</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1461171865904331</v>
+        <v>0.1247988263765607</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -5017,19 +5017,19 @@
         <v>5387</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2147</v>
+        <v>2169</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11747</v>
+        <v>11784</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07672147039440406</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03057567727938755</v>
+        <v>0.03089196504019442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1673074547332427</v>
+        <v>0.1678320777968468</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -5038,19 +5038,19 @@
         <v>7531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3225</v>
+        <v>3243</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14253</v>
+        <v>14078</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06174361635984732</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02644231504187136</v>
+        <v>0.02658814484354396</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1168581144805051</v>
+        <v>0.1154255421260298</v>
       </c>
     </row>
     <row r="25">
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7472</v>
+        <v>6460</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04154402024663784</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.144370157132598</v>
+        <v>0.1248208748201069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -5088,19 +5088,19 @@
         <v>8446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4205</v>
+        <v>4233</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14282</v>
+        <v>15820</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1202873559147651</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05988369217298502</v>
+        <v>0.06028984659420988</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2034090315427929</v>
+        <v>0.2253217855090042</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -5109,19 +5109,19 @@
         <v>10596</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5313</v>
+        <v>5240</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16999</v>
+        <v>17949</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0868732224908017</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04356409086313021</v>
+        <v>0.04295907176476725</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1393697912517527</v>
+        <v>0.14716355084534</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>47462</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41622</v>
+        <v>42171</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50660</v>
+        <v>50675</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.917031135875254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8041998453480625</v>
+        <v>0.8148008310058266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9788266564909406</v>
+        <v>0.9791228941780808</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>56</v>
@@ -5159,19 +5159,19 @@
         <v>56380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49907</v>
+        <v>49017</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62628</v>
+        <v>61775</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8029911736908308</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7108085242436287</v>
+        <v>0.6981310023981051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8919883388049223</v>
+        <v>0.8798308963927511</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -5180,19 +5180,19 @@
         <v>103842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94414</v>
+        <v>95358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110347</v>
+        <v>110337</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.851383161149351</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7740856291167831</v>
+        <v>0.7818240939944664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.90471896736128</v>
+        <v>0.9046369995344319</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>3058</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8628</v>
+        <v>8463</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02723812335944363</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008396387818495143</v>
+        <v>0.008249811986540994</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0768583266466257</v>
+        <v>0.07538294855350752</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -5305,19 +5305,19 @@
         <v>6938</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2840</v>
+        <v>2750</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14172</v>
+        <v>13958</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04886933778683807</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02000461323650325</v>
+        <v>0.01937367779322663</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09982990612171715</v>
+        <v>0.09831925791111407</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -5326,19 +5326,19 @@
         <v>9995</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4925</v>
+        <v>4910</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18688</v>
+        <v>18658</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03931723344431386</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01937445681992054</v>
+        <v>0.01931180901590064</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07350895371676305</v>
+        <v>0.07339023471602232</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>3039</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>958</v>
+        <v>979</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8421</v>
+        <v>7809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02707389700761858</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008534557270987836</v>
+        <v>0.00871821107778707</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07500877764378695</v>
+        <v>0.06955650493693499</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -5376,19 +5376,19 @@
         <v>15507</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8200</v>
+        <v>8272</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23615</v>
+        <v>24668</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1092307672490825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05776184960345664</v>
+        <v>0.05827003792869363</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1663454834326634</v>
+        <v>0.173763696094165</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -5397,19 +5397,19 @@
         <v>18546</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11506</v>
+        <v>11122</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29163</v>
+        <v>28448</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07295120469212187</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04525975868309834</v>
+        <v>0.04374947459495384</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1147110591414833</v>
+        <v>0.1118988709947658</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>106166</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99207</v>
+        <v>99821</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110196</v>
+        <v>110157</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9456879796329378</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8836998011833693</v>
+        <v>0.8891676691633925</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9815908879895735</v>
+        <v>0.9812412760033394</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>109</v>
@@ -5447,19 +5447,19 @@
         <v>119518</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108899</v>
+        <v>108500</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127782</v>
+        <v>127274</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8418998949640795</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7670997459075861</v>
+        <v>0.7642919091685001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9001139772664736</v>
+        <v>0.8965382705642211</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>203</v>
@@ -5468,19 +5468,19 @@
         <v>225684</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>213097</v>
+        <v>213974</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>234933</v>
+        <v>235305</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8877315618635643</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8382193753847155</v>
+        <v>0.8416681058366289</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9241099395557825</v>
+        <v>0.9255743914246346</v>
       </c>
     </row>
     <row r="31">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5826</v>
+        <v>6741</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009559900099961664</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04824696138906583</v>
+        <v>0.05582248165562024</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5593,19 +5593,19 @@
         <v>5555</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12112</v>
+        <v>12263</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03378370331390196</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01295015540820334</v>
+        <v>0.01291332310772737</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0736675659260333</v>
+        <v>0.07458274949102196</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -5614,19 +5614,19 @@
         <v>6709</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2317</v>
+        <v>2338</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13375</v>
+        <v>13895</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02352635168796106</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008125116179433751</v>
+        <v>0.008199324626083979</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04690361541041583</v>
+        <v>0.04872400813050049</v>
       </c>
     </row>
     <row r="33">
@@ -5643,19 +5643,19 @@
         <v>6717</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15855</v>
+        <v>15574</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05562867332506793</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01883064224202706</v>
+        <v>0.01876492009996112</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1313045451003065</v>
+        <v>0.1289786483415733</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -5664,19 +5664,19 @@
         <v>10140</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4591</v>
+        <v>5419</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17236</v>
+        <v>18247</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06167230113401408</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02792381947534739</v>
+        <v>0.03296027861579499</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1048304909499599</v>
+        <v>0.1109799564253399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>14</v>
@@ -5685,19 +5685,19 @@
         <v>16857</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9374</v>
+        <v>9864</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>27264</v>
+        <v>27682</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0591131812887455</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03287215796981991</v>
+        <v>0.0345883384217911</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09560532202731639</v>
+        <v>0.09707188598033882</v>
       </c>
     </row>
     <row r="34">
@@ -5714,19 +5714,19 @@
         <v>112880</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>104005</v>
+        <v>103765</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>117472</v>
+        <v>117425</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9348114265749704</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8613093477797628</v>
+        <v>0.8593231532200674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9728386900826564</v>
+        <v>0.9724492618830793</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>137</v>
@@ -5735,19 +5735,19 @@
         <v>148722</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>140667</v>
+        <v>139042</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>155578</v>
+        <v>155349</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.904543995552084</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8555503165427734</v>
+        <v>0.8456685623351579</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9462407612424064</v>
+        <v>0.9448489719509475</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>237</v>
@@ -5756,19 +5756,19 @@
         <v>261603</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>250411</v>
+        <v>250178</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>270348</v>
+        <v>270288</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9173604670232934</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8781135430438414</v>
+        <v>0.8772977518297105</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9480271002955916</v>
+        <v>0.9478160107397348</v>
       </c>
     </row>
     <row r="35">
@@ -5860,19 +5860,19 @@
         <v>23035</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14769</v>
+        <v>15312</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34512</v>
+        <v>36255</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04116127063713625</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02638978357467246</v>
+        <v>0.02736078393329342</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0616679999766488</v>
+        <v>0.06478248244304262</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>41</v>
@@ -5881,19 +5881,19 @@
         <v>45967</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33075</v>
+        <v>32880</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61528</v>
+        <v>60027</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06186872954461366</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04451743422437261</v>
+        <v>0.04425434627080736</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08281286962662227</v>
+        <v>0.08079264293754047</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>62</v>
@@ -5902,19 +5902,19 @@
         <v>69002</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>52783</v>
+        <v>54289</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>87084</v>
+        <v>88554</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0529722502980939</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04052090298581836</v>
+        <v>0.04167670865795095</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06685306933464645</v>
+        <v>0.06798180263996782</v>
       </c>
     </row>
     <row r="37">
@@ -5931,19 +5931,19 @@
         <v>30443</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20592</v>
+        <v>18926</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46028</v>
+        <v>43883</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05439804589150637</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03679510474407736</v>
+        <v>0.03381910162885333</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08224642058615753</v>
+        <v>0.07841265477823431</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -5952,19 +5952,19 @@
         <v>75733</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58801</v>
+        <v>58925</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93069</v>
+        <v>94214</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1019326943315981</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07914330513159989</v>
+        <v>0.0793093092586854</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1252648010322518</v>
+        <v>0.1268064803232123</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>95</v>
@@ -5973,19 +5973,19 @@
         <v>106177</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>83866</v>
+        <v>87263</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>129235</v>
+        <v>126626</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08151053557096019</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06438284578466229</v>
+        <v>0.06699081536740274</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09921202771274758</v>
+        <v>0.09720919504644639</v>
       </c>
     </row>
     <row r="38">
@@ -6002,19 +6002,19 @@
         <v>506158</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>489468</v>
+        <v>488971</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>519842</v>
+        <v>520483</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9044406834713574</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8746174569150441</v>
+        <v>0.8737279878496313</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9288906047149047</v>
+        <v>0.9300363869034982</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>583</v>
@@ -6023,19 +6023,19 @@
         <v>621275</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>599300</v>
+        <v>599802</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>642599</v>
+        <v>642328</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8361985761237882</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8066214381136053</v>
+        <v>0.8072981419623485</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8648997013920214</v>
+        <v>0.8645350224356543</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1041</v>
@@ -6044,19 +6044,19 @@
         <v>1127433</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1099754</v>
+        <v>1101853</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1155855</v>
+        <v>1151729</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.865517214130946</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8442681628891058</v>
+        <v>0.8458796388421457</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8873367334712778</v>
+        <v>0.8841689812632321</v>
       </c>
     </row>
     <row r="39">
@@ -6392,19 +6392,19 @@
         <v>2432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6648</v>
+        <v>6473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06251529941889289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01993005247585046</v>
+        <v>0.01957923995108958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1709068980289086</v>
+        <v>0.1664073941933965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6413,19 +6413,19 @@
         <v>3417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1002</v>
+        <v>1029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8857</v>
+        <v>9250</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06917621459245282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02029674100474892</v>
+        <v>0.02084258559397251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1793155798966531</v>
+        <v>0.1872855817813277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6434,19 +6434,19 @@
         <v>5848</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2421</v>
+        <v>2604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12100</v>
+        <v>12390</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06624166821821405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02742755209717974</v>
+        <v>0.02949801071145769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1370556334139477</v>
+        <v>0.1403408629726327</v>
       </c>
     </row>
     <row r="5">
@@ -6463,19 +6463,19 @@
         <v>4100</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1517</v>
+        <v>1595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8462</v>
+        <v>8375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1054121250690945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03901334803686555</v>
+        <v>0.0410082414050245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2175499103495682</v>
+        <v>0.2153052892810118</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -6484,19 +6484,19 @@
         <v>6397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2175</v>
+        <v>2099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14373</v>
+        <v>14482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1295145112557844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04403070940655596</v>
+        <v>0.04250203552158802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2910060518767994</v>
+        <v>0.2932021494353462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -6505,19 +6505,19 @@
         <v>10497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5351</v>
+        <v>5081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19014</v>
+        <v>18559</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1188959148389722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06061305894162899</v>
+        <v>0.05754577942821507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2153651342417042</v>
+        <v>0.2102170800513809</v>
       </c>
     </row>
     <row r="6">
@@ -6534,19 +6534,19 @@
         <v>32364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27280</v>
+        <v>27766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35772</v>
+        <v>35751</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8320725755120126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7013670639058839</v>
+        <v>0.7138507101924971</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9196789105829278</v>
+        <v>0.9191555315516674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -6555,19 +6555,19 @@
         <v>39577</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31822</v>
+        <v>30767</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45072</v>
+        <v>45008</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8013092741517628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6442873697203735</v>
+        <v>0.6229248577434644</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9125519566583048</v>
+        <v>0.9112515938624692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -6576,19 +6576,19 @@
         <v>71942</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63743</v>
+        <v>63506</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78944</v>
+        <v>78710</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8148624169428138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7219952697289194</v>
+        <v>0.7193167722315168</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8941707920169363</v>
+        <v>0.8915203304121079</v>
       </c>
     </row>
     <row r="7">
@@ -6696,16 +6696,16 @@
         <v>1274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9471</v>
+        <v>11586</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03447339723448371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01105718276351369</v>
+        <v>0.01105292930513398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08219743156356334</v>
+        <v>0.1005462815515032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -6714,19 +6714,19 @@
         <v>3972</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11711</v>
+        <v>10953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0196140934473616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006333886721867637</v>
+        <v>0.006358727820259239</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05782524933881681</v>
+        <v>0.05408037439083139</v>
       </c>
     </row>
     <row r="9">
@@ -6743,19 +6743,19 @@
         <v>2503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7110</v>
+        <v>7097</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02866716590743792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008380506122704625</v>
+        <v>0.008350256075952267</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08144463299490222</v>
+        <v>0.08129859068111539</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -6764,19 +6764,19 @@
         <v>6713</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2632</v>
+        <v>2639</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14748</v>
+        <v>13540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05825586957361664</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02284568874980249</v>
+        <v>0.02289960027175198</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1279908133797408</v>
+        <v>0.1175069763524025</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -6785,19 +6785,19 @@
         <v>9215</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4013</v>
+        <v>4205</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17731</v>
+        <v>18282</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04550204860690657</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0198169456830511</v>
+        <v>0.02076518767227709</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0875490756178299</v>
+        <v>0.09027235091498503</v>
       </c>
     </row>
     <row r="10">
@@ -6814,19 +6814,19 @@
         <v>84792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80185</v>
+        <v>80198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86563</v>
+        <v>86566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9713328340925621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9185553670050977</v>
+        <v>0.9187014093188844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9916194938772953</v>
+        <v>0.9916497439240477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -6835,19 +6835,19 @@
         <v>104543</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95435</v>
+        <v>95520</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109928</v>
+        <v>109975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9072707331918997</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8282257125349631</v>
+        <v>0.8289684887972621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9540081968695903</v>
+        <v>0.9544120043133055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -6856,19 +6856,19 @@
         <v>189335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179099</v>
+        <v>179450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195961</v>
+        <v>195750</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9348838579457318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8843412750459312</v>
+        <v>0.8860740727625048</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.967600020457887</v>
+        <v>0.9665580185001764</v>
       </c>
     </row>
     <row r="11">
@@ -6973,19 +6973,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6994,19 +6994,19 @@
         <v>4477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13389</v>
+        <v>11892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008588642653284776</v>
+        <v>0.008524931331646078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09334211302731155</v>
+        <v>0.08290147678397584</v>
       </c>
     </row>
     <row r="13">
@@ -7023,19 +7023,19 @@
         <v>3639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9278</v>
+        <v>8249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05726106207853175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01350317309715683</v>
+        <v>0.01240778251088609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.146010621473936</v>
+        <v>0.1298041732377282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8269</v>
+        <v>8595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03087183486269517</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1034999994549443</v>
+        <v>0.1075779472063312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -7065,19 +7065,19 @@
         <v>6105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2300</v>
+        <v>2472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12634</v>
+        <v>12770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04256240602072971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01603662555679772</v>
+        <v>0.01723506850354928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08807440346058154</v>
+        <v>0.0890263748840902</v>
       </c>
     </row>
     <row r="14">
@@ -7094,19 +7094,19 @@
         <v>59907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54268</v>
+        <v>55297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62688</v>
+        <v>62758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9427389379214682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.853989378526064</v>
+        <v>0.8701958267622719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864968269028432</v>
+        <v>0.9875922174891139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -7115,19 +7115,19 @@
         <v>72953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64807</v>
+        <v>64077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77371</v>
+        <v>77409</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9130899131104336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.811127424262607</v>
+        <v>0.8019915608011914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9683832489810938</v>
+        <v>0.9688569458924312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -7136,19 +7136,19 @@
         <v>132860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123747</v>
+        <v>124121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138188</v>
+        <v>137904</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.926224592329525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8626904775529524</v>
+        <v>0.8652983367285247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633618205956208</v>
+        <v>0.9613824326115304</v>
       </c>
     </row>
     <row r="15">
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4411</v>
+        <v>4837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01305259388437836</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0681689782839236</v>
+        <v>0.07474768140410953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11975</v>
+        <v>11527</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03736910263573561</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1307653784463358</v>
+        <v>0.1258774155616315</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -7282,19 +7282,19 @@
         <v>4267</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12094</v>
+        <v>12397</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02730058731463579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005508681848453657</v>
+        <v>0.005568115065864096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07738155145528321</v>
+        <v>0.07932051179204563</v>
       </c>
     </row>
     <row r="17">
@@ -7311,19 +7311,19 @@
         <v>2610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6996</v>
+        <v>7112</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04033038538360675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01247450101397089</v>
+        <v>0.01252277510587491</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1081127021724924</v>
+        <v>0.1099070977042841</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7332,19 +7332,19 @@
         <v>3527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9506</v>
+        <v>9726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0385121977001787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01125672670983886</v>
+        <v>0.01129812061471989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1038023455695573</v>
+        <v>0.1062131754850861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -7353,19 +7353,19 @@
         <v>6137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2591</v>
+        <v>2565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13934</v>
+        <v>12935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03926503811548743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0165818233492221</v>
+        <v>0.01640956321967134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08915572489502646</v>
+        <v>0.08276460568671871</v>
       </c>
     </row>
     <row r="18">
@@ -7382,19 +7382,19 @@
         <v>61257</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56318</v>
+        <v>56601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63866</v>
+        <v>63769</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9466170207320149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8702845768501606</v>
+        <v>0.8746553900409438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9869247945543752</v>
+        <v>0.9854265485951775</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -7403,19 +7403,19 @@
         <v>84625</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77478</v>
+        <v>76645</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89120</v>
+        <v>89200</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9241186996640857</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8460671918415457</v>
+        <v>0.8369719142959153</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9731999641576295</v>
+        <v>0.9740706062744808</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -7424,19 +7424,19 @@
         <v>145882</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136527</v>
+        <v>137182</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151468</v>
+        <v>151679</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9334343745698768</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8735753935164188</v>
+        <v>0.8777667405231918</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9691781841434937</v>
+        <v>0.970527286025159</v>
       </c>
     </row>
     <row r="19">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4343</v>
+        <v>3791</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01799092635166167</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08593580185786642</v>
+        <v>0.07501862275344585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4218</v>
+        <v>4628</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009816427251911791</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04554821091377317</v>
+        <v>0.04997341310329179</v>
       </c>
     </row>
     <row r="21">
@@ -7604,19 +7604,19 @@
         <v>5440</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2080</v>
+        <v>1922</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11503</v>
+        <v>10943</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1076539934385581</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04115860045729468</v>
+        <v>0.0380325718790429</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2276337031349778</v>
+        <v>0.2165653666129194</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -7625,19 +7625,19 @@
         <v>5440</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1921</v>
+        <v>1933</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10747</v>
+        <v>11406</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05873947646224391</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0207388086822445</v>
+        <v>0.02087491663109623</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1160392302207797</v>
+        <v>0.1231619629032849</v>
       </c>
     </row>
     <row r="22">
@@ -7667,19 +7667,19 @@
         <v>44183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37806</v>
+        <v>38647</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48108</v>
+        <v>48391</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8743550802097803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7481553376623015</v>
+        <v>0.7647964990350931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9520217062487424</v>
+        <v>0.9576312436374084</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -7688,19 +7688,19 @@
         <v>86263</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80370</v>
+        <v>80526</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90285</v>
+        <v>90242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9314440962858443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8678117674719243</v>
+        <v>0.8694951615340186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9748737461203526</v>
+        <v>0.9744110207974349</v>
       </c>
     </row>
     <row r="23">
@@ -7792,19 +7792,19 @@
         <v>4351</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1587</v>
+        <v>1646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8970</v>
+        <v>9046</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08980691876665196</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03275770412384853</v>
+        <v>0.03398321819736883</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1851510849123454</v>
+        <v>0.1867331158747659</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7813,19 +7813,19 @@
         <v>5834</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13992</v>
+        <v>13990</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08657215153102157</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01967134672862186</v>
+        <v>0.01944793642925571</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2076308631418614</v>
+        <v>0.2075978227672082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -7834,19 +7834,19 @@
         <v>10185</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4814</v>
+        <v>5073</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19430</v>
+        <v>18454</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08792505168291627</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04156370157420227</v>
+        <v>0.04379316583734769</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.16774247828047</v>
+        <v>0.1593139743601948</v>
       </c>
     </row>
     <row r="25">
@@ -7863,19 +7863,19 @@
         <v>2444</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6703</v>
+        <v>6477</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05044697609769265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01631546401656046</v>
+        <v>0.01609183129017137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1383514070407602</v>
+        <v>0.1336888940513249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8758</v>
+        <v>9517</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03640538033693026</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1299649737139398</v>
+        <v>0.1412197491404398</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -7905,19 +7905,19 @@
         <v>4897</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1667</v>
+        <v>1607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10843</v>
+        <v>10816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04227809872863776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01438808243791532</v>
+        <v>0.01387189684377253</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09361109827836536</v>
+        <v>0.09337115132990766</v>
       </c>
     </row>
     <row r="26">
@@ -7934,19 +7934,19 @@
         <v>41651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35713</v>
+        <v>36815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45185</v>
+        <v>45222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8597461051356554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7371648725030003</v>
+        <v>0.7599162407079985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9326863818057844</v>
+        <v>0.9334469801717107</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -7955,19 +7955,19 @@
         <v>59101</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50180</v>
+        <v>51247</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63900</v>
+        <v>64806</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8770224681320482</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7446456440011272</v>
+        <v>0.7604713013555584</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.948233023490908</v>
+        <v>0.9616891201785966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -7976,19 +7976,19 @@
         <v>100752</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91522</v>
+        <v>91111</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107303</v>
+        <v>106909</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8697968495884459</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7901096031141337</v>
+        <v>0.7865621934242825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9263544241091439</v>
+        <v>0.9229502646613034</v>
       </c>
     </row>
     <row r="27">
@@ -8080,19 +8080,19 @@
         <v>2716</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7452</v>
+        <v>8411</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02420965451540992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007825403477925284</v>
+        <v>0.007977040502257202</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06642542640829642</v>
+        <v>0.07497394682919524</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -8101,19 +8101,19 @@
         <v>6670</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2634</v>
+        <v>2622</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15889</v>
+        <v>14162</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04517874508343991</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01784344044598329</v>
+        <v>0.0177618583142745</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.10762758660069</v>
+        <v>0.09592944454646428</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -8122,19 +8122,19 @@
         <v>9385</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4574</v>
+        <v>4391</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16974</v>
+        <v>17302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03612433702304462</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01760568365508312</v>
+        <v>0.01689994334962025</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06533299081414218</v>
+        <v>0.06659386533382501</v>
       </c>
     </row>
     <row r="29">
@@ -8151,19 +8151,19 @@
         <v>4790</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1808</v>
+        <v>1758</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10346</v>
+        <v>10627</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0426981496503057</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01611553120910305</v>
+        <v>0.01566784703703456</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09221834568474123</v>
+        <v>0.09473176725623349</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -8172,19 +8172,19 @@
         <v>15560</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8843</v>
+        <v>8316</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24444</v>
+        <v>24901</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1054014213195276</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05989847287131651</v>
+        <v>0.05632916140568852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1655821479570985</v>
+        <v>0.1686778947372568</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -8193,19 +8193,19 @@
         <v>20350</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12210</v>
+        <v>13042</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31726</v>
+        <v>31440</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07832628391320869</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04699473515455312</v>
+        <v>0.05020008583440608</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1221130082210611</v>
+        <v>0.1210107806172605</v>
       </c>
     </row>
     <row r="30">
@@ -8222,19 +8222,19 @@
         <v>104679</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98761</v>
+        <v>97956</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109214</v>
+        <v>108578</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9330921958342844</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8803365087997399</v>
+        <v>0.8731661242146862</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9735146875862423</v>
+        <v>0.9678486996676748</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>107</v>
@@ -8243,19 +8243,19 @@
         <v>125396</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114806</v>
+        <v>114351</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>133284</v>
+        <v>133576</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8494198335970324</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7776871638068765</v>
+        <v>0.7746070211522662</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9028573004872529</v>
+        <v>0.9048300412685982</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>208</v>
@@ -8264,19 +8264,19 @@
         <v>230075</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>217360</v>
+        <v>216991</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>239410</v>
+        <v>239174</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8855493790637466</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8366111236057444</v>
+        <v>0.8351901284960334</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9214802933858568</v>
+        <v>0.9205716862996548</v>
       </c>
     </row>
     <row r="31">
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4628</v>
+        <v>4417</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006459770917601138</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03449461760027497</v>
+        <v>0.03291898424789746</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -8436,19 +8436,19 @@
         <v>6054</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2329</v>
+        <v>2341</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12519</v>
+        <v>13324</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03434194817193437</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01321091412590406</v>
+        <v>0.01327951858528002</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07100820155393955</v>
+        <v>0.07557587788435036</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>6</v>
@@ -8457,19 +8457,19 @@
         <v>6921</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2610</v>
+        <v>2962</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15664</v>
+        <v>15445</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02229259077434357</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.008408042764102914</v>
+        <v>0.009541355909402117</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05045405003945022</v>
+        <v>0.04974926205530902</v>
       </c>
     </row>
     <row r="34">
@@ -8486,7 +8486,7 @@
         <v>133301</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>129540</v>
+        <v>129751</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>134168</v>
@@ -8495,7 +8495,7 @@
         <v>0.9935402290823988</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9655053823997251</v>
+        <v>0.9670810157521027</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -8507,19 +8507,19 @@
         <v>170243</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>163778</v>
+        <v>162973</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>173968</v>
+        <v>173956</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9656580518280656</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9289917984460592</v>
+        <v>0.9244241221156494</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.986789085874096</v>
+        <v>0.9867204814147199</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>277</v>
@@ -8528,19 +8528,19 @@
         <v>303544</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>294801</v>
+        <v>295020</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>307855</v>
+        <v>307503</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9777074092256565</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9495459499605498</v>
+        <v>0.9502507379446909</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9915919572358972</v>
+        <v>0.9904586440905979</v>
       </c>
     </row>
     <row r="35">
@@ -8632,19 +8632,19 @@
         <v>10343</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5844</v>
+        <v>5197</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17167</v>
+        <v>17404</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01749111428859949</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00988215275980309</v>
+        <v>0.008788172878430414</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02903162397018215</v>
+        <v>0.0294325701623607</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -8653,19 +8653,19 @@
         <v>28701</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18923</v>
+        <v>18566</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>43451</v>
+        <v>43157</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03689378359309833</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02432503773448905</v>
+        <v>0.02386531276041366</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05585410092911842</v>
+        <v>0.05547708727859246</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>33</v>
@@ -8674,19 +8674,19 @@
         <v>39044</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27023</v>
+        <v>26693</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>54966</v>
+        <v>53192</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02851454955699161</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01973513049509634</v>
+        <v>0.01949430933560293</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04014264150016641</v>
+        <v>0.03884734101956832</v>
       </c>
     </row>
     <row r="37">
@@ -8703,19 +8703,19 @@
         <v>20952</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13035</v>
+        <v>13897</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29756</v>
+        <v>31637</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03543193718609717</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02204377908696857</v>
+        <v>0.02350179559726227</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0503211395768435</v>
+        <v>0.05350230398983605</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>40</v>
@@ -8724,19 +8724,19 @@
         <v>48610</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35489</v>
+        <v>35638</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>65365</v>
+        <v>64932</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06248665218588577</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04561911129135367</v>
+        <v>0.04581097228453407</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08402356918664891</v>
+        <v>0.08346809143397006</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>64</v>
@@ -8745,19 +8745,19 @@
         <v>69562</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>54159</v>
+        <v>55245</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>88793</v>
+        <v>89343</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05080280677236672</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03955338023796721</v>
+        <v>0.04034692258108839</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06484776049275262</v>
+        <v>0.06524893964847629</v>
       </c>
     </row>
     <row r="38">
@@ -8774,19 +8774,19 @@
         <v>560033</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>549389</v>
+        <v>548007</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>569236</v>
+        <v>568650</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9470769485253033</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9290758126488511</v>
+        <v>0.9267393479134529</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9626406254093858</v>
+        <v>0.9616484236384575</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>594</v>
@@ -8795,19 +8795,19 @@
         <v>700620</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>681936</v>
+        <v>679359</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>717072</v>
+        <v>717071</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9006195642210159</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8766023318897539</v>
+        <v>0.8732901295892477</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9217683021599623</v>
+        <v>0.9217672881474646</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1185</v>
@@ -8816,19 +8816,19 @@
         <v>1260653</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1238010</v>
+        <v>1236976</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1280886</v>
+        <v>1279168</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9206826436706417</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.904146258371019</v>
+        <v>0.9033907453438512</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9354590270904884</v>
+        <v>0.9342046679154595</v>
       </c>
     </row>
     <row r="39">
@@ -9177,19 +9177,19 @@
         <v>3399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1324</v>
+        <v>1225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7080</v>
+        <v>6855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05207708691481345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02028538995148763</v>
+        <v>0.01875936697987869</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1084592755419592</v>
+        <v>0.1050145170395884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -9198,19 +9198,19 @@
         <v>3399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1224</v>
+        <v>1572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7166</v>
+        <v>7369</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02692996732488829</v>
+        <v>0.0269299673248883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009698180087145994</v>
+        <v>0.01245310995728199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05676549756415605</v>
+        <v>0.05837792435802429</v>
       </c>
     </row>
     <row r="5">
@@ -9227,19 +9227,19 @@
         <v>5304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2131</v>
+        <v>2294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9680</v>
+        <v>9752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08701518202416042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03495626429125521</v>
+        <v>0.03763385551851101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1588003324590377</v>
+        <v>0.1599787355742006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -9248,19 +9248,19 @@
         <v>13652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9844</v>
+        <v>9082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18537</v>
+        <v>18648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2091473212903624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1508015664060491</v>
+        <v>0.1391287174579316</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2839811655414903</v>
+        <v>0.2856786075546487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -9269,19 +9269,19 @@
         <v>18956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13161</v>
+        <v>13131</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25379</v>
+        <v>25813</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1501718352589625</v>
+        <v>0.1501718352589626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1042608759964004</v>
+        <v>0.1040219239884343</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2010515898573406</v>
+        <v>0.2044921265896888</v>
       </c>
     </row>
     <row r="6">
@@ -9298,19 +9298,19 @@
         <v>55651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51275</v>
+        <v>51203</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58824</v>
+        <v>58661</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9129848179758395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8411996675409619</v>
+        <v>0.8400212644257994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9650437357087446</v>
+        <v>0.962366144481489</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>100</v>
@@ -9319,19 +9319,19 @@
         <v>48224</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42745</v>
+        <v>43155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52751</v>
+        <v>53354</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7387755917948242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6548341773555045</v>
+        <v>0.661111523932534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8081181786143812</v>
+        <v>0.8173542118898571</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>176</v>
@@ -9340,19 +9340,19 @@
         <v>103875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96625</v>
+        <v>96787</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109700</v>
+        <v>109807</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.822898197416149</v>
+        <v>0.8228981974161491</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7654586887479758</v>
+        <v>0.7667470301919821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8690441521458698</v>
+        <v>0.8698909453922661</v>
       </c>
     </row>
     <row r="7">
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5543</v>
+        <v>5589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02088925680465882</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06271917179110315</v>
+        <v>0.06323779515869413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -9465,19 +9465,19 @@
         <v>11597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6774</v>
+        <v>7254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18359</v>
+        <v>17909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08569623691680224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05005976026855078</v>
+        <v>0.05360079261447476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1356655950024993</v>
+        <v>0.1323412453849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -9486,19 +9486,19 @@
         <v>13443</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8324</v>
+        <v>8293</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20143</v>
+        <v>20438</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0600942046896296</v>
+        <v>0.06009420468962959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03720853514603785</v>
+        <v>0.03707353774621033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09004633382257075</v>
+        <v>0.09136367641586352</v>
       </c>
     </row>
     <row r="9">
@@ -9515,19 +9515,19 @@
         <v>5642</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1923</v>
+        <v>1962</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11423</v>
+        <v>11795</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06384799363115219</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02176451965772086</v>
+        <v>0.02219688113712849</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1292615205293121</v>
+        <v>0.1334720221074145</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -9536,19 +9536,19 @@
         <v>17197</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11834</v>
+        <v>12167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23782</v>
+        <v>23594</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.127073419258</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08744965909685323</v>
+        <v>0.08991102810492912</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1757324103935975</v>
+        <v>0.1743434233811445</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -9557,19 +9557,19 @@
         <v>22839</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16229</v>
+        <v>16610</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31342</v>
+        <v>31602</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1020961809778914</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07254697044039084</v>
+        <v>0.07424936667191159</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.140108559654802</v>
+        <v>0.1412682515282434</v>
       </c>
     </row>
     <row r="10">
@@ -9586,19 +9586,19 @@
         <v>80885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74357</v>
+        <v>75230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84611</v>
+        <v>84714</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9152627495641891</v>
+        <v>0.915262749564189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8414046838682474</v>
+        <v>0.8512830788975949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.957435512409325</v>
+        <v>0.9585982354054435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -9607,19 +9607,19 @@
         <v>106534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98014</v>
+        <v>98694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114054</v>
+        <v>113557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7872303438251979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7242696814148094</v>
+        <v>0.729293871335658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8427936819937598</v>
+        <v>0.8391219215623249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>266</v>
@@ -9628,19 +9628,19 @@
         <v>187419</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177985</v>
+        <v>176776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196329</v>
+        <v>195555</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8378096143324789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7956361769455939</v>
+        <v>0.7902316596617079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8776418962329546</v>
+        <v>0.874181008496991</v>
       </c>
     </row>
     <row r="11">
@@ -9732,19 +9732,19 @@
         <v>4124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1737</v>
+        <v>1785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7739</v>
+        <v>8213</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05705491964225482</v>
+        <v>0.05705491964225481</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02403461432878392</v>
+        <v>0.02469603954245319</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1070569644444731</v>
+        <v>0.113621005886849</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -9753,19 +9753,19 @@
         <v>3991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1871</v>
+        <v>1775</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7424</v>
+        <v>7316</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04649282933795006</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02179287031703652</v>
+        <v>0.02068042274739851</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08647528627838569</v>
+        <v>0.08522297094775665</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -9774,19 +9774,19 @@
         <v>8116</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4873</v>
+        <v>4573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12754</v>
+        <v>13189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05132085856305797</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03081513460126356</v>
+        <v>0.02891601264879029</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08065121288937553</v>
+        <v>0.08340052102650596</v>
       </c>
     </row>
     <row r="13">
@@ -9803,19 +9803,19 @@
         <v>3137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1100</v>
+        <v>1166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6501</v>
+        <v>6719</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04339545508811684</v>
+        <v>0.04339545508811683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01522403267435395</v>
+        <v>0.01612599508198974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08994133354597947</v>
+        <v>0.09295127383257361</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -9824,19 +9824,19 @@
         <v>7779</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4457</v>
+        <v>4637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12099</v>
+        <v>12361</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09061573507589941</v>
+        <v>0.0906157350758994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05191696109093102</v>
+        <v>0.05400966450558174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1409289296848109</v>
+        <v>0.143981053262398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -9845,19 +9845,19 @@
         <v>10916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6944</v>
+        <v>7367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16013</v>
+        <v>16584</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06903090809275239</v>
+        <v>0.06903090809275242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04391060218219688</v>
+        <v>0.04658966741917157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1012616887321216</v>
+        <v>0.104873300575858</v>
       </c>
     </row>
     <row r="14">
@@ -9874,19 +9874,19 @@
         <v>65024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60479</v>
+        <v>60225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68382</v>
+        <v>67938</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8995496252696285</v>
+        <v>0.8995496252696283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8366801428938947</v>
+        <v>0.8331561604038026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9459996653666464</v>
+        <v>0.9398592972630719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>146</v>
@@ -9895,19 +9895,19 @@
         <v>74079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68797</v>
+        <v>68821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78005</v>
+        <v>77935</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8628914355861506</v>
+        <v>0.8628914355861507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8013665831653222</v>
+        <v>0.8016443694491864</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9086231626922764</v>
+        <v>0.9078040282800373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -9916,19 +9916,19 @@
         <v>139103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132980</v>
+        <v>132966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>144720</v>
+        <v>144713</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8796482333441895</v>
+        <v>0.8796482333441896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8409241183476338</v>
+        <v>0.8408366626188218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9151649003860961</v>
+        <v>0.9151216441756618</v>
       </c>
     </row>
     <row r="15">
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2819</v>
+        <v>2360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006848384048270347</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03389881838315878</v>
+        <v>0.02837920359870013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -10041,19 +10041,19 @@
         <v>4623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2511</v>
+        <v>2327</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7859</v>
+        <v>7767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04183446530846804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02272103425335605</v>
+        <v>0.02106140278394311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07111744157080885</v>
+        <v>0.07028965069295372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -10062,19 +10062,19 @@
         <v>5192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2821</v>
+        <v>2814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8548</v>
+        <v>9102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02681168813292651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01456694843787384</v>
+        <v>0.01453155908181134</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04414096357058068</v>
+        <v>0.0470008468450831</v>
       </c>
     </row>
     <row r="17">
@@ -10091,19 +10091,19 @@
         <v>4738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1989</v>
+        <v>2036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8936</v>
+        <v>8998</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05697606623066916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0239154297743097</v>
+        <v>0.02448727779421253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1074574674018116</v>
+        <v>0.108209939096918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -10112,19 +10112,19 @@
         <v>6804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4158</v>
+        <v>3950</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10974</v>
+        <v>10635</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0615732297963484</v>
+        <v>0.06157322979634839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03762479110656092</v>
+        <v>0.03574461881320243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09931095193492166</v>
+        <v>0.09623849222835398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -10133,19 +10133,19 @@
         <v>11542</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7513</v>
+        <v>7436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16645</v>
+        <v>17030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05959924010104387</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03879454554308932</v>
+        <v>0.03839519534497089</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08594781739028118</v>
+        <v>0.08793591712086363</v>
       </c>
     </row>
     <row r="18">
@@ -10162,19 +10162,19 @@
         <v>77849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73460</v>
+        <v>73395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80642</v>
+        <v>80622</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9361755497210604</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.883403941252429</v>
+        <v>0.882615945066807</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9697719244639053</v>
+        <v>0.9695260708585138</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>229</v>
@@ -10183,19 +10183,19 @@
         <v>99077</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94401</v>
+        <v>95007</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102899</v>
+        <v>103073</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8965923048951835</v>
+        <v>0.8965923048951836</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8542726570708377</v>
+        <v>0.8597607699510532</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9311798587049317</v>
+        <v>0.9327571292498117</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>339</v>
@@ -10204,19 +10204,19 @@
         <v>176926</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>170711</v>
+        <v>170676</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181856</v>
+        <v>182157</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9135890717660295</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8815000599982983</v>
+        <v>0.8813161508261902</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9390466542494028</v>
+        <v>0.9406028651591692</v>
       </c>
     </row>
     <row r="19">
@@ -10321,19 +10321,19 @@
         <v>1276</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3792</v>
+        <v>3275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02072790177185545</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006299941249091794</v>
+        <v>0.006325579245020866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06161504920680386</v>
+        <v>0.0532148196625129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -10342,19 +10342,19 @@
         <v>1276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3503</v>
+        <v>3545</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01301071950349782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003984889402017457</v>
+        <v>0.003954572454988706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03572551410427539</v>
+        <v>0.03615426256789381</v>
       </c>
     </row>
     <row r="21">
@@ -10371,19 +10371,19 @@
         <v>4063</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1954</v>
+        <v>2036</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7280</v>
+        <v>7409</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1113178913317759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05353363266867698</v>
+        <v>0.05577073673064256</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1994390109019776</v>
+        <v>0.2029718433663169</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -10392,19 +10392,19 @@
         <v>8164</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5228</v>
+        <v>5304</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11709</v>
+        <v>12191</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1326498234868649</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08495423179191113</v>
+        <v>0.08618836603908649</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1902557189563141</v>
+        <v>0.1980900961432757</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -10413,19 +10413,19 @@
         <v>12227</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8280</v>
+        <v>8382</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16776</v>
+        <v>17043</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1247077553321139</v>
+        <v>0.1247077553321138</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08445193242197677</v>
+        <v>0.08548757594345088</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.171100728197851</v>
+        <v>0.1738323783465265</v>
       </c>
     </row>
     <row r="22">
@@ -10442,19 +10442,19 @@
         <v>32440</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29223</v>
+        <v>29094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34549</v>
+        <v>34467</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8886821086682242</v>
+        <v>0.8886821086682238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8005609890980225</v>
+        <v>0.797028156633684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9464663673313227</v>
+        <v>0.9442292632693575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -10463,19 +10463,19 @@
         <v>52103</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48522</v>
+        <v>47814</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55303</v>
+        <v>55020</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8466222747412797</v>
+        <v>0.8466222747412796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7884309226699084</v>
+        <v>0.7769276069323108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8986169780517075</v>
+        <v>0.8940165399496734</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>204</v>
@@ -10484,19 +10484,19 @@
         <v>84542</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79783</v>
+        <v>79546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88550</v>
+        <v>88408</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8622815251643886</v>
+        <v>0.8622815251643883</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8137394552016288</v>
+        <v>0.8113258992507285</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9031598563171555</v>
+        <v>0.9017082049997689</v>
       </c>
     </row>
     <row r="23">
@@ -10588,19 +10588,19 @@
         <v>1937</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4408</v>
+        <v>4304</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03217020754977386</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0116677971507432</v>
+        <v>0.01163397023406085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07319682543426743</v>
+        <v>0.07146225510838668</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -10609,19 +10609,19 @@
         <v>5283</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2911</v>
+        <v>3001</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8281</v>
+        <v>8960</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07849380359961189</v>
+        <v>0.0784938035996119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04324975400364462</v>
+        <v>0.04458237675878618</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1230300742849889</v>
+        <v>0.1331204195186436</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -10630,19 +10630,19 @@
         <v>7221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4396</v>
+        <v>4546</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10859</v>
+        <v>11125</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05661873861410435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03446953801197708</v>
+        <v>0.03564244035352279</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08514845163635576</v>
+        <v>0.08723461906660088</v>
       </c>
     </row>
     <row r="25">
@@ -10659,19 +10659,19 @@
         <v>2547</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5152</v>
+        <v>5298</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04228482143381915</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01520628058211047</v>
+        <v>0.01483097573658279</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08555311775804741</v>
+        <v>0.0879705451438464</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -10680,19 +10680,19 @@
         <v>4938</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2952</v>
+        <v>2799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7793</v>
+        <v>7827</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07336042437448427</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04385612491415056</v>
+        <v>0.04158926925284376</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1157785773639251</v>
+        <v>0.1162835150517547</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -10701,19 +10701,19 @@
         <v>7484</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4546</v>
+        <v>4541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10820</v>
+        <v>11191</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05868581161213471</v>
+        <v>0.0586858116121347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03564912331338529</v>
+        <v>0.03561013580131644</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08483866830181684</v>
+        <v>0.08775232462526399</v>
       </c>
     </row>
     <row r="26">
@@ -10730,19 +10730,19 @@
         <v>55740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52700</v>
+        <v>52472</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57805</v>
+        <v>57849</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.925544971016407</v>
+        <v>0.9255449710164071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8750682139012879</v>
+        <v>0.8712732742692105</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9598254777205361</v>
+        <v>0.9605635507105976</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>148</v>
@@ -10751,19 +10751,19 @@
         <v>57088</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53023</v>
+        <v>53005</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60202</v>
+        <v>60136</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8481457720259039</v>
+        <v>0.848145772025904</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7877529301269119</v>
+        <v>0.7874810479954407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8944173448774105</v>
+        <v>0.8934270141322029</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>272</v>
@@ -10772,19 +10772,19 @@
         <v>112827</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108074</v>
+        <v>108248</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>116848</v>
+        <v>116940</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8846954497737608</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8474271987116442</v>
+        <v>0.8487902779486233</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9162238043127365</v>
+        <v>0.9169480512672483</v>
       </c>
     </row>
     <row r="27">
@@ -10889,19 +10889,19 @@
         <v>9301</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5036</v>
+        <v>5159</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15718</v>
+        <v>15744</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05666975955045454</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03068437481759203</v>
+        <v>0.03143218080684113</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09576953794052752</v>
+        <v>0.09592849453495322</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -10910,19 +10910,19 @@
         <v>9301</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4766</v>
+        <v>4713</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15820</v>
+        <v>16735</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02948297332810195</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01510871446101219</v>
+        <v>0.0149383336785931</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05014718868841284</v>
+        <v>0.05304817058707888</v>
       </c>
     </row>
     <row r="29">
@@ -10939,19 +10939,19 @@
         <v>6816</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2841</v>
+        <v>3278</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12456</v>
+        <v>14558</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04503470992563814</v>
+        <v>0.04503470992563815</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01877286160531337</v>
+        <v>0.02166128585263867</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08230241090667166</v>
+        <v>0.09619286956168113</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -10960,19 +10960,19 @@
         <v>12113</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7374</v>
+        <v>7509</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18313</v>
+        <v>19080</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.07380590061119968</v>
+        <v>0.07380590061119967</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04493025970475823</v>
+        <v>0.0457497192157478</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1115787838208588</v>
+        <v>0.1162547910234224</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -10981,19 +10981,19 @@
         <v>18929</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12513</v>
+        <v>12514</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27656</v>
+        <v>27594</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06000319142845655</v>
+        <v>0.06000319142845657</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03966661116690963</v>
+        <v>0.0396689477429412</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08766832682579496</v>
+        <v>0.08746977778680283</v>
       </c>
     </row>
     <row r="30">
@@ -11010,19 +11010,19 @@
         <v>144525</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>138885</v>
+        <v>136783</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148500</v>
+        <v>148063</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9549652900743617</v>
+        <v>0.9549652900743619</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9176975890933283</v>
+        <v>0.9038071304383182</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9812271383946867</v>
+        <v>0.978338714147361</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>211</v>
@@ -11031,19 +11031,19 @@
         <v>142710</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>135397</v>
+        <v>134514</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>149516</v>
+        <v>149690</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8695243398383459</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8249649291308984</v>
+        <v>0.8195896954912882</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9109933481498305</v>
+        <v>0.9120526606063887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>372</v>
@@ -11052,19 +11052,19 @@
         <v>287235</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>276324</v>
+        <v>277682</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>294827</v>
+        <v>295803</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9105138352434413</v>
+        <v>0.9105138352434415</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8759265516541225</v>
+        <v>0.8802294740609374</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9345805156980334</v>
+        <v>0.9376722655690903</v>
       </c>
     </row>
     <row r="31">
@@ -11172,16 +11172,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5079</v>
+        <v>5090</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.00711368314729377</v>
+        <v>0.007113683147293768</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02387318463535867</v>
+        <v>0.02392171762915479</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5232</v>
+        <v>5608</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004021973481212616</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01390216898425037</v>
+        <v>0.0149031302417642</v>
       </c>
     </row>
     <row r="33">
@@ -11219,19 +11219,19 @@
         <v>1995</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5528</v>
+        <v>5363</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01219618052736257</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00402566918202327</v>
+        <v>0.004008819266525892</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03379646248055776</v>
+        <v>0.03279284837271933</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>17</v>
@@ -11240,19 +11240,19 @@
         <v>12099</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>7427</v>
+        <v>7007</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>20763</v>
+        <v>19498</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.05686699541604839</v>
+        <v>0.05686699541604837</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03490645851399322</v>
+        <v>0.0329314812855649</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09758603732340669</v>
+        <v>0.09163829853280679</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>20</v>
@@ -11261,19 +11261,19 @@
         <v>14094</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8468</v>
+        <v>8781</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>22179</v>
+        <v>21683</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0374524126572405</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02250245785615249</v>
+        <v>0.02333323150511778</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05893682106245229</v>
+        <v>0.05761905757203804</v>
       </c>
     </row>
     <row r="34">
@@ -11290,19 +11290,19 @@
         <v>161559</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>158026</v>
+        <v>158191</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>162896</v>
+        <v>162898</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9878038194726374</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9662035375194399</v>
+        <v>0.9672071516272809</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9959743308179768</v>
+        <v>0.995991180733474</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>324</v>
@@ -11311,19 +11311,19 @@
         <v>199153</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>191058</v>
+        <v>191495</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>204162</v>
+        <v>204620</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.936019321436658</v>
+        <v>0.9360193214366579</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8979720246591983</v>
+        <v>0.9000256661986569</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9595600258897053</v>
+        <v>0.9617145104595791</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>556</v>
@@ -11332,19 +11332,19 @@
         <v>360713</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>352490</v>
+        <v>352771</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>366827</v>
+        <v>366480</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9585256138615469</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.936673515976002</v>
+        <v>0.9374191270931161</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9747707945126382</v>
+        <v>0.9738501656707167</v>
       </c>
     </row>
     <row r="35">
@@ -11436,19 +11436,19 @@
         <v>8477</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5068</v>
+        <v>4833</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13985</v>
+        <v>14223</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01183312678120107</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007074602784038115</v>
+        <v>0.006746157465518851</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01952148090821837</v>
+        <v>0.01985374566134993</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -11457,19 +11457,19 @@
         <v>40984</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32177</v>
+        <v>32468</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>53674</v>
+        <v>52008</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04540176185423266</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03564590980896092</v>
+        <v>0.03596750872516578</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05945922458095464</v>
+        <v>0.05761373358340707</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>87</v>
@@ -11478,19 +11478,19 @@
         <v>49461</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39050</v>
+        <v>39959</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61240</v>
+        <v>61720</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03054879435188798</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02411859088626009</v>
+        <v>0.02467988266453396</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03782355374424392</v>
+        <v>0.03811989982161183</v>
       </c>
     </row>
     <row r="37">
@@ -11507,19 +11507,19 @@
         <v>34242</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25449</v>
+        <v>25368</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44908</v>
+        <v>44735</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04779722636018503</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03552355394123184</v>
+        <v>0.0354109121044317</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06268608136610557</v>
+        <v>0.06244434322081316</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>156</v>
@@ -11528,19 +11528,19 @@
         <v>82746</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>70398</v>
+        <v>70187</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>95457</v>
+        <v>96800</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.09166556273445943</v>
+        <v>0.09166556273445944</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07798652981646685</v>
+        <v>0.07775226553583345</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1057468461291602</v>
+        <v>0.1072344315257967</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>206</v>
@@ -11549,19 +11549,19 @@
         <v>116988</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100923</v>
+        <v>101333</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>133441</v>
+        <v>133606</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.07225533133447958</v>
+        <v>0.07225533133447956</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06233331626907861</v>
+        <v>0.06258658919025273</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08241756881263768</v>
+        <v>0.08251942424259345</v>
       </c>
     </row>
     <row r="38">
@@ -11578,19 +11578,19 @@
         <v>673672</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>662235</v>
+        <v>662550</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>684465</v>
+        <v>683923</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9403696468586138</v>
+        <v>0.940369646858614</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9244040815079172</v>
+        <v>0.9248438855732809</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9554343491915447</v>
+        <v>0.9546777993471079</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1478</v>
@@ -11599,19 +11599,19 @@
         <v>778968</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>763679</v>
+        <v>763695</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>793362</v>
+        <v>793730</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8629326754113079</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8459957560948943</v>
+        <v>0.8460134375631353</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8788783293163536</v>
+        <v>0.8792864122496978</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2440</v>
@@ -11620,19 +11620,19 @@
         <v>1452640</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1432540</v>
+        <v>1433281</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1471054</v>
+        <v>1470449</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8971958743136322</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8847814130530199</v>
+        <v>0.8852391957948463</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9085691361985704</v>
+        <v>0.9081954130605852</v>
       </c>
     </row>
     <row r="39">
